--- a/Semestre_i_DFMEA_Temperance (versión 2).xlsx
+++ b/Semestre_i_DFMEA_Temperance (versión 2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisseramirez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisseramirez/Desktop/SEMESTRE i /temperancetarea1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1840" windowWidth="28800" windowHeight="16320"/>
+    <workbookView xWindow="3600" yWindow="440" windowWidth="28800" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
@@ -568,12 +568,6 @@
     <t>El actuador no se mueve de acuerdo a la señal que corresponde</t>
   </si>
   <si>
-    <t xml:space="preserve">La circuiteria tiene los dos estados cambiados </t>
-  </si>
-  <si>
-    <t>El actuador no se devuelve o se queda cuando se le ordena</t>
-  </si>
-  <si>
     <t>Señal modificada</t>
   </si>
   <si>
@@ -680,6 +674,12 @@
   </si>
   <si>
     <t>Borrar setpoints y datos innecesarios / Development of PAT</t>
+  </si>
+  <si>
+    <t>Ruido electrico/ No aislameinto eléctrico</t>
+  </si>
+  <si>
+    <t>Los comandos del actuador estan incompletos</t>
   </si>
 </sst>
 </file>
@@ -2441,12 +2441,174 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2455,14 +2617,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2489,160 +2643,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2702,7 +2702,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2858,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3016,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3113,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3164,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3261,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3409,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3460,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3608,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3705,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3756,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3859,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3910,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4013,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4064,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4167,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4312,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4363,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4420,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4555,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,8 +4894,8 @@
   </sheetPr>
   <dimension ref="A1:W446"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4927,21 +4927,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="249"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265"/>
       <c r="G1" s="2"/>
       <c r="H1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="252"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="268"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -4953,19 +4953,19 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="256" t="s">
+      <c r="H2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="258"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -5098,11 +5098,11 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="236"/>
-      <c r="B6" s="232" t="s">
+      <c r="A6" s="256"/>
+      <c r="B6" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="260" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="91" t="s">
@@ -5152,9 +5152,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="237"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="259"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="261"/>
       <c r="D7" s="76" t="s">
         <v>90</v>
       </c>
@@ -5200,9 +5200,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="237"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="246"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="262"/>
       <c r="D8" s="98" t="s">
         <v>91</v>
       </c>
@@ -5248,9 +5248,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="237"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="245" t="s">
+      <c r="A9" s="257"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="91" t="s">
@@ -5299,9 +5299,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="237"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="259"/>
+      <c r="A10" s="257"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="261"/>
       <c r="D10" s="76" t="s">
         <v>89</v>
       </c>
@@ -5318,11 +5318,11 @@
         <v>93</v>
       </c>
       <c r="I10" s="73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="62">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="K10" s="75" t="s">
         <v>94</v>
@@ -5348,9 +5348,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="246"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="262"/>
       <c r="D11" s="98" t="s">
         <v>107</v>
       </c>
@@ -5386,20 +5386,20 @@
         <v>7</v>
       </c>
       <c r="P11" s="120">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="104">
         <v>1</v>
       </c>
       <c r="R11" s="50">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" s="237"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="245" t="s">
+      <c r="A12" s="257"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="260" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="91" t="s">
@@ -5449,9 +5449,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="237"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="246"/>
+      <c r="A13" s="257"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="262"/>
       <c r="D13" s="98"/>
       <c r="E13" s="99">
         <v>8</v>
@@ -5496,8 +5496,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="237"/>
-      <c r="B14" s="233"/>
+      <c r="A14" s="257"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="110" t="s">
         <v>77</v>
       </c>
@@ -5516,30 +5516,38 @@
       <c r="H14" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="94">
+        <v>6</v>
+      </c>
       <c r="J14" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L14" s="130" t="s">
         <v>155</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="114"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="105"/>
+      <c r="O14" s="94">
+        <v>6</v>
+      </c>
+      <c r="P14" s="121">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="105">
+        <v>4</v>
+      </c>
       <c r="R14" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="237"/>
-      <c r="B15" s="233"/>
+      <c r="A15" s="257"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="108"/>
       <c r="D15" s="76" t="s">
         <v>98</v>
@@ -5550,91 +5558,119 @@
       <c r="F15" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="73"/>
+      <c r="G15" s="73">
+        <v>2</v>
+      </c>
       <c r="H15" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="73">
+        <v>4</v>
+      </c>
       <c r="J15" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K15" s="75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L15" s="131" t="s">
         <v>95</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="115"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="86"/>
+      <c r="O15" s="73">
+        <v>8</v>
+      </c>
+      <c r="P15" s="122">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="86">
+        <v>2</v>
+      </c>
       <c r="R15" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="237"/>
-      <c r="B16" s="233"/>
+      <c r="A16" s="257"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="109"/>
       <c r="D16" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="77">
+        <v>5</v>
+      </c>
       <c r="F16" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="77">
+        <v>4</v>
+      </c>
       <c r="H16" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="77">
+        <v>6</v>
+      </c>
       <c r="J16" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L16" s="132" t="s">
         <v>155</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="116"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="90"/>
+      <c r="O16" s="77">
+        <v>5</v>
+      </c>
+      <c r="P16" s="123">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="90">
+        <v>4</v>
+      </c>
       <c r="R16" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="237"/>
-      <c r="B17" s="233"/>
+      <c r="A17" s="257"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="79" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="71">
+        <v>4</v>
+      </c>
       <c r="F17" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="71">
+        <v>2</v>
+      </c>
       <c r="H17" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="71">
+        <v>4</v>
+      </c>
       <c r="J17" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K17" s="79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L17" s="133" t="s">
         <v>95</v>
@@ -5643,41 +5679,49 @@
       <c r="N17" s="117"/>
       <c r="O17" s="125">
         <f>E17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="118">
         <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="106">
+        <v>2</v>
+      </c>
       <c r="R17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="236"/>
-      <c r="B18" s="232" t="s">
+      <c r="A18" s="256"/>
+      <c r="B18" s="258" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="238" t="s">
+      <c r="C18" s="277" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="240" t="s">
+      <c r="D18" s="279" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="242"/>
+      <c r="E18" s="281">
+        <v>8</v>
+      </c>
       <c r="F18" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="244"/>
+      <c r="G18" s="283">
+        <v>10</v>
+      </c>
       <c r="H18" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="142"/>
+      <c r="I18" s="142">
+        <v>1</v>
+      </c>
       <c r="J18" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K18" s="158" t="s">
         <v>104</v>
@@ -5686,35 +5730,39 @@
         <v>155</v>
       </c>
       <c r="M18" s="159"/>
-      <c r="N18" s="234"/>
+      <c r="N18" s="275"/>
       <c r="O18" s="160">
         <f>E18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P18" s="161">
         <f t="shared" ref="P18:P24" si="2">G18</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="162"/>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="162">
+        <v>1</v>
+      </c>
       <c r="R18" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="237"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="243"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="282"/>
       <c r="F19" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="244"/>
+      <c r="G19" s="283"/>
       <c r="H19" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="156"/>
+      <c r="I19" s="156">
+        <v>1</v>
+      </c>
       <c r="J19" s="228">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5726,7 +5774,7 @@
         <v>155</v>
       </c>
       <c r="M19" s="164"/>
-      <c r="N19" s="235"/>
+      <c r="N19" s="276"/>
       <c r="O19" s="165"/>
       <c r="P19" s="166"/>
       <c r="Q19" s="167"/>
@@ -5736,26 +5784,32 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="237"/>
-      <c r="B20" s="233"/>
+      <c r="A20" s="257"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="140" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="226"/>
+      <c r="E20" s="226">
+        <v>7</v>
+      </c>
       <c r="F20" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="144"/>
+      <c r="G20" s="144">
+        <v>7</v>
+      </c>
       <c r="H20" s="229" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="136">
+        <v>1</v>
+      </c>
       <c r="J20" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K20" s="168" t="s">
         <v>150</v>
@@ -5765,33 +5819,45 @@
       </c>
       <c r="M20" s="169"/>
       <c r="N20" s="170"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
+      <c r="O20" s="171">
+        <v>7</v>
+      </c>
+      <c r="P20" s="172">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="173">
+        <v>1</v>
+      </c>
       <c r="R20" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="237"/>
-      <c r="B21" s="233"/>
+      <c r="A21" s="257"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="145"/>
       <c r="D21" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="147"/>
+      <c r="E21" s="147">
+        <v>7</v>
+      </c>
       <c r="F21" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="149"/>
+      <c r="G21" s="149">
+        <v>3</v>
+      </c>
       <c r="H21" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="216"/>
+      <c r="I21" s="216">
+        <v>5</v>
+      </c>
       <c r="J21" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K21" s="174" t="s">
         <v>151</v>
@@ -5801,33 +5867,45 @@
       </c>
       <c r="M21" s="175"/>
       <c r="N21" s="176"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="179"/>
+      <c r="O21" s="177">
+        <v>7</v>
+      </c>
+      <c r="P21" s="178">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="179">
+        <v>3</v>
+      </c>
       <c r="R21" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="237"/>
-      <c r="B22" s="233"/>
+      <c r="A22" s="257"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="151"/>
       <c r="D22" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="152"/>
+      <c r="E22" s="152">
+        <v>8</v>
+      </c>
       <c r="F22" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="152"/>
+      <c r="G22" s="152">
+        <v>5</v>
+      </c>
       <c r="H22" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="136"/>
+      <c r="I22" s="136">
+        <v>4</v>
+      </c>
       <c r="J22" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K22" s="158" t="s">
         <v>153</v>
@@ -5837,33 +5915,45 @@
       </c>
       <c r="M22" s="159"/>
       <c r="N22" s="180"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="162"/>
+      <c r="O22" s="160">
+        <v>8</v>
+      </c>
+      <c r="P22" s="161">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="162">
+        <v>2</v>
+      </c>
       <c r="R22" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="237"/>
-      <c r="B23" s="233"/>
+      <c r="A23" s="257"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="146"/>
       <c r="D23" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="139"/>
+      <c r="E23" s="139">
+        <v>8</v>
+      </c>
       <c r="F23" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="139"/>
+      <c r="G23" s="139">
+        <v>2</v>
+      </c>
       <c r="H23" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="139"/>
+      <c r="I23" s="139">
+        <v>3</v>
+      </c>
       <c r="J23" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K23" s="163" t="s">
         <v>154</v>
@@ -5873,35 +5963,47 @@
       </c>
       <c r="M23" s="164"/>
       <c r="N23" s="181"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
+      <c r="O23" s="165">
+        <v>8</v>
+      </c>
+      <c r="P23" s="166">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="167">
+        <v>2</v>
+      </c>
       <c r="R23" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="237"/>
-      <c r="B24" s="233"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="259"/>
       <c r="C24" s="155" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="156"/>
+      <c r="E24" s="156">
+        <v>7</v>
+      </c>
       <c r="F24" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="157"/>
+      <c r="G24" s="157">
+        <v>5</v>
+      </c>
       <c r="H24" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="139"/>
+      <c r="I24" s="139">
+        <v>4</v>
+      </c>
       <c r="J24" s="129">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K24" s="163" t="s">
         <v>152</v>
@@ -5913,16 +6015,18 @@
       <c r="N24" s="181"/>
       <c r="O24" s="165">
         <f>E24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P24" s="166">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="167"/>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="167">
+        <v>2</v>
+      </c>
       <c r="R24" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5948,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="186" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L25" s="186" t="s">
         <v>155</v>
@@ -5969,14 +6073,14 @@
         <v>132</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="74" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="74" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G26" s="183"/>
       <c r="H26" s="72" t="s">
@@ -5988,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="189" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L26" s="189" t="s">
         <v>105</v>
@@ -6007,14 +6111,14 @@
       <c r="A27" s="40"/>
       <c r="B27" s="43"/>
       <c r="C27" s="88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G27" s="184"/>
       <c r="H27" s="185" t="s">
@@ -6026,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L27" s="191" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M27" s="89"/>
       <c r="N27" s="192"/>
@@ -6045,16 +6149,16 @@
       <c r="A28" s="39"/>
       <c r="B28" s="35"/>
       <c r="C28" s="141" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="265" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="237" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="231"/>
       <c r="F28" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="266"/>
+        <v>188</v>
+      </c>
+      <c r="G28" s="238"/>
       <c r="H28" s="138" t="s">
         <v>93</v>
       </c>
@@ -6064,14 +6168,14 @@
         <v>0</v>
       </c>
       <c r="K28" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L28" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="273"/>
-      <c r="N28" s="274"/>
-      <c r="O28" s="275"/>
+      <c r="M28" s="245"/>
+      <c r="N28" s="246"/>
+      <c r="O28" s="247"/>
       <c r="P28" s="172"/>
       <c r="Q28" s="173"/>
       <c r="R28" s="54">
@@ -6092,9 +6196,9 @@
       </c>
       <c r="E29" s="139"/>
       <c r="F29" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="267"/>
+        <v>162</v>
+      </c>
+      <c r="G29" s="239"/>
       <c r="H29" s="138" t="s">
         <v>93</v>
       </c>
@@ -6104,14 +6208,14 @@
         <v>0</v>
       </c>
       <c r="K29" s="163" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L29" s="163" t="s">
         <v>95</v>
       </c>
       <c r="M29" s="164"/>
       <c r="N29" s="181"/>
-      <c r="O29" s="276"/>
+      <c r="O29" s="248"/>
       <c r="P29" s="166"/>
       <c r="Q29" s="167"/>
       <c r="R29" s="52">
@@ -6122,18 +6226,18 @@
     <row r="30" spans="1:18" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="268" t="s">
+      <c r="C30" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="269" t="s">
+      <c r="D30" s="241" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="147"/>
-      <c r="F30" s="270" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="271"/>
-      <c r="H30" s="272" t="s">
+      <c r="F30" s="242" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="243"/>
+      <c r="H30" s="244" t="s">
         <v>93</v>
       </c>
       <c r="I30" s="147"/>
@@ -6141,17 +6245,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="277" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="277" t="s">
+      <c r="K30" s="249" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="M30" s="278"/>
-      <c r="N30" s="279"/>
-      <c r="O30" s="280"/>
-      <c r="P30" s="281"/>
-      <c r="Q30" s="282"/>
+      <c r="M30" s="250"/>
+      <c r="N30" s="251"/>
+      <c r="O30" s="252"/>
+      <c r="P30" s="253"/>
+      <c r="Q30" s="254"/>
       <c r="R30" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6160,15 +6264,15 @@
     <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="225"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="261" t="s">
-        <v>180</v>
+      <c r="C31" s="233" t="s">
+        <v>178</v>
       </c>
       <c r="D31" s="72" t="s">
         <v>125</v>
       </c>
       <c r="E31" s="71"/>
       <c r="F31" s="72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" s="71"/>
       <c r="H31" s="72" t="s">
@@ -6180,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="186" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L31" s="133" t="s">
         <v>155</v>
@@ -6200,15 +6304,15 @@
       <c r="B32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="262" t="s">
-        <v>181</v>
+      <c r="C32" s="234" t="s">
+        <v>179</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G32" s="73"/>
       <c r="H32" s="72" t="s">
@@ -6220,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L32" s="131" t="s">
         <v>155</v>
@@ -6238,18 +6342,18 @@
     <row r="33" spans="1:23" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="196"/>
-      <c r="C33" s="263" t="s">
-        <v>182</v>
+      <c r="C33" s="235" t="s">
+        <v>180</v>
       </c>
       <c r="D33" s="100" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="99"/>
       <c r="F33" s="100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G33" s="99"/>
-      <c r="H33" s="264" t="s">
+      <c r="H33" s="236" t="s">
         <v>93</v>
       </c>
       <c r="I33" s="99"/>
@@ -6257,8 +6361,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="283" t="s">
-        <v>195</v>
+      <c r="K33" s="255" t="s">
+        <v>193</v>
       </c>
       <c r="L33" s="134" t="s">
         <v>155</v>
@@ -6282,11 +6386,11 @@
         <v>121</v>
       </c>
       <c r="D34" s="197" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="142"/>
       <c r="F34" s="138" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G34" s="152"/>
       <c r="H34" s="138" t="s">
@@ -6320,7 +6424,7 @@
       <c r="D35" s="199"/>
       <c r="E35" s="136"/>
       <c r="F35" s="200" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G35" s="139"/>
       <c r="H35" s="138" t="s">
@@ -6332,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L35" s="201" t="s">
         <v>155</v>
@@ -6351,14 +6455,14 @@
       <c r="A36" s="39"/>
       <c r="B36" s="35"/>
       <c r="C36" s="203" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36" s="204" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="205"/>
       <c r="F36" s="74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="72" t="s">
@@ -6430,7 +6534,7 @@
       </c>
       <c r="E38" s="73"/>
       <c r="F38" s="74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G38" s="73"/>
       <c r="H38" s="72" t="s">
@@ -6442,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L38" s="131" t="s">
         <v>155</v>
@@ -6459,16 +6563,16 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
-      <c r="B39" s="260"/>
+      <c r="B39" s="232"/>
       <c r="C39" s="209" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>120</v>
       </c>
       <c r="E39" s="99"/>
       <c r="F39" s="100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G39" s="99"/>
       <c r="H39" s="72" t="s">
@@ -6504,7 +6608,7 @@
         <v>115</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="139"/>
       <c r="F40" s="137" t="s">
@@ -6542,11 +6646,11 @@
         <v>116</v>
       </c>
       <c r="D41" s="214" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41" s="139"/>
       <c r="F41" s="137" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G41" s="139"/>
       <c r="H41" s="138" t="s">
@@ -6558,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L41" s="201" t="s">
         <v>95</v>
@@ -6580,11 +6684,11 @@
         <v>117</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E42" s="216"/>
       <c r="F42" s="217" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G42" s="216"/>
       <c r="H42" s="138" t="s">
@@ -6596,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="220" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L42" s="221" t="s">
         <v>95</v>
@@ -7075,22 +7179,22 @@
     <row r="446" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B18:B24"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J43">
     <cfRule type="colorScale" priority="187">
@@ -7138,7 +7242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Semestre_i_DFMEA_Temperance (versión 2).xlsx
+++ b/Semestre_i_DFMEA_Temperance (versión 2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="440" windowWidth="28800" windowHeight="16320"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>Requerimiento 8              (Automatic Touch Action by Commands)</t>
   </si>
   <si>
-    <t>Requerimiento 6         (Automatic X Axis)</t>
-  </si>
-  <si>
     <t>Requerimiento 7                (UART Command Reception)</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>Los comandos del actuador estan incompletos</t>
+  </si>
+  <si>
+    <t>Requerimiento 6         (Automatic Z Axis)</t>
   </si>
 </sst>
 </file>
@@ -4894,8 +4894,8 @@
   </sheetPr>
   <dimension ref="A1:W446"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5100,7 +5100,7 @@
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="256"/>
       <c r="B6" s="258" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="260" t="s">
         <v>92</v>
@@ -5181,7 +5181,7 @@
         <v>104</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M7" s="84"/>
       <c r="N7" s="112"/>
@@ -5358,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="99">
         <v>7</v>
@@ -5524,10 +5524,10 @@
         <v>36</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L14" s="130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="114"/>
@@ -5572,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="K15" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L15" s="131" t="s">
         <v>95</v>
@@ -5620,10 +5620,10 @@
         <v>120</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16" s="132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="116"/>
@@ -5670,7 +5670,7 @@
         <v>32</v>
       </c>
       <c r="K17" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17" s="133" t="s">
         <v>95</v>
@@ -5696,19 +5696,19 @@
     <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="256"/>
       <c r="B18" s="258" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="C18" s="277" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="279" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="281">
         <v>8</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="283">
         <v>10</v>
@@ -5727,7 +5727,7 @@
         <v>104</v>
       </c>
       <c r="L18" s="158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M18" s="159"/>
       <c r="N18" s="275"/>
@@ -5754,7 +5754,7 @@
       <c r="D19" s="280"/>
       <c r="E19" s="282"/>
       <c r="F19" s="137" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="283"/>
       <c r="H19" s="138" t="s">
@@ -5771,7 +5771,7 @@
         <v>94</v>
       </c>
       <c r="L19" s="163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M19" s="164"/>
       <c r="N19" s="276"/>
@@ -5787,16 +5787,16 @@
       <c r="A20" s="257"/>
       <c r="B20" s="259"/>
       <c r="C20" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="226">
         <v>7</v>
       </c>
       <c r="F20" s="143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="144">
         <v>7</v>
@@ -5812,7 +5812,7 @@
         <v>49</v>
       </c>
       <c r="K20" s="168" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L20" s="168" t="s">
         <v>95</v>
@@ -5838,13 +5838,13 @@
       <c r="B21" s="259"/>
       <c r="C21" s="145"/>
       <c r="D21" s="146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="147">
         <v>7</v>
       </c>
       <c r="F21" s="148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="149">
         <v>3</v>
@@ -5860,7 +5860,7 @@
         <v>105</v>
       </c>
       <c r="K21" s="174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L21" s="174" t="s">
         <v>105</v>
@@ -5886,13 +5886,13 @@
       <c r="B22" s="259"/>
       <c r="C22" s="151"/>
       <c r="D22" s="141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="152">
         <v>8</v>
       </c>
       <c r="F22" s="143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="152">
         <v>5</v>
@@ -5908,10 +5908,10 @@
         <v>160</v>
       </c>
       <c r="K22" s="158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" s="158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M22" s="159"/>
       <c r="N22" s="180"/>
@@ -5934,13 +5934,13 @@
       <c r="B23" s="259"/>
       <c r="C23" s="146"/>
       <c r="D23" s="153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="139">
         <v>8</v>
       </c>
       <c r="F23" s="154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="139">
         <v>2</v>
@@ -5956,10 +5956,10 @@
         <v>48</v>
       </c>
       <c r="K23" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="163" t="s">
         <v>154</v>
-      </c>
-      <c r="L23" s="163" t="s">
-        <v>155</v>
       </c>
       <c r="M23" s="164"/>
       <c r="N23" s="181"/>
@@ -5984,13 +5984,13 @@
         <v>114</v>
       </c>
       <c r="D24" s="150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="156">
         <v>7</v>
       </c>
       <c r="F24" s="150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="157">
         <v>5</v>
@@ -6006,10 +6006,10 @@
         <v>140</v>
       </c>
       <c r="K24" s="163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L24" s="163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M24" s="164"/>
       <c r="N24" s="181"/>
@@ -6033,14 +6033,14 @@
       <c r="A25" s="38"/>
       <c r="B25" s="44"/>
       <c r="C25" s="80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="182"/>
       <c r="H25" s="72" t="s">
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L25" s="186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="81"/>
       <c r="N25" s="187"/>
@@ -6073,14 +6073,14 @@
         <v>132</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="183"/>
       <c r="H26" s="72" t="s">
@@ -6111,14 +6111,14 @@
       <c r="A27" s="40"/>
       <c r="B27" s="43"/>
       <c r="C27" s="88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="184"/>
       <c r="H27" s="185" t="s">
@@ -6130,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L27" s="191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M27" s="89"/>
       <c r="N27" s="192"/>
@@ -6149,14 +6149,14 @@
       <c r="A28" s="39"/>
       <c r="B28" s="35"/>
       <c r="C28" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="237" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="231"/>
       <c r="F28" s="138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="238"/>
       <c r="H28" s="138" t="s">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L28" s="168" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="E29" s="139"/>
       <c r="F29" s="137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G29" s="239"/>
       <c r="H29" s="138" t="s">
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L29" s="163" t="s">
         <v>95</v>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E30" s="147"/>
       <c r="F30" s="242" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30" s="243"/>
       <c r="H30" s="244" t="s">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="249" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L30" s="249" t="s">
         <v>95</v>
@@ -6265,14 +6265,14 @@
       <c r="A31" s="225"/>
       <c r="B31" s="35"/>
       <c r="C31" s="233" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="72" t="s">
         <v>125</v>
       </c>
       <c r="E31" s="71"/>
       <c r="F31" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G31" s="71"/>
       <c r="H31" s="72" t="s">
@@ -6284,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L31" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M31" s="81"/>
       <c r="N31" s="187"/>
@@ -6302,17 +6302,17 @@
     <row r="32" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="234" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" s="73"/>
       <c r="H32" s="72" t="s">
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L32" s="131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="190"/>
@@ -6343,14 +6343,14 @@
       <c r="A33" s="46"/>
       <c r="B33" s="196"/>
       <c r="C33" s="235" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="100" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="99"/>
       <c r="F33" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="99"/>
       <c r="H33" s="236" t="s">
@@ -6362,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="255" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L33" s="134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M33" s="103"/>
       <c r="N33" s="211"/>
@@ -6386,11 +6386,11 @@
         <v>121</v>
       </c>
       <c r="D34" s="197" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="142"/>
       <c r="F34" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" s="152"/>
       <c r="H34" s="138" t="s">
@@ -6424,7 +6424,7 @@
       <c r="D35" s="199"/>
       <c r="E35" s="136"/>
       <c r="F35" s="200" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="139"/>
       <c r="H35" s="138" t="s">
@@ -6436,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L35" s="201" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M35" s="164"/>
       <c r="N35" s="181"/>
@@ -6455,14 +6455,14 @@
       <c r="A36" s="39"/>
       <c r="B36" s="35"/>
       <c r="C36" s="203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36" s="204" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="205"/>
       <c r="F36" s="74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="72" t="s">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L36" s="131" t="s">
         <v>105</v>
@@ -6498,7 +6498,7 @@
       <c r="D37" s="96"/>
       <c r="E37" s="205"/>
       <c r="F37" s="74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="73"/>
       <c r="H37" s="72" t="s">
@@ -6510,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="L37" s="131" t="s">
         <v>154</v>
-      </c>
-      <c r="L37" s="131" t="s">
-        <v>155</v>
       </c>
       <c r="M37" s="84"/>
       <c r="N37" s="190"/>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E38" s="73"/>
       <c r="F38" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G38" s="73"/>
       <c r="H38" s="72" t="s">
@@ -6546,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L38" s="131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M38" s="84"/>
       <c r="N38" s="190"/>
@@ -6565,14 +6565,14 @@
       <c r="A39" s="40"/>
       <c r="B39" s="232"/>
       <c r="C39" s="209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>120</v>
       </c>
       <c r="E39" s="99"/>
       <c r="F39" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" s="99"/>
       <c r="H39" s="72" t="s">
@@ -6608,11 +6608,11 @@
         <v>115</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="139"/>
       <c r="F40" s="137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="139"/>
       <c r="H40" s="138" t="s">
@@ -6646,11 +6646,11 @@
         <v>116</v>
       </c>
       <c r="D41" s="214" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="139"/>
       <c r="F41" s="137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G41" s="139"/>
       <c r="H41" s="138" t="s">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L41" s="201" t="s">
         <v>95</v>
@@ -6684,11 +6684,11 @@
         <v>117</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E42" s="216"/>
       <c r="F42" s="217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" s="216"/>
       <c r="H42" s="138" t="s">
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L42" s="221" t="s">
         <v>95</v>
@@ -7413,21 +7413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -7592,24 +7577,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7626,4 +7609,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Semestre_i_DFMEA_Temperance (versión 2).xlsx
+++ b/Semestre_i_DFMEA_Temperance (versión 2).xlsx
@@ -2535,12 +2535,94 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2561,88 +2643,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2702,7 +2702,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2858,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3016,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3113,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3164,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3261,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3409,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3460,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3608,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3705,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3756,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3859,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3910,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4013,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4064,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4167,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4218,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4312,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4363,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4420,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4555,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,21 +4927,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="265"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="2"/>
       <c r="H1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="266"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="268"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="272"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -4953,19 +4953,19 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="271"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="272" t="s">
+      <c r="H2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="274"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="278"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -5098,11 +5098,11 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="256"/>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="258"/>
+      <c r="B6" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="281" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="91" t="s">
@@ -5152,9 +5152,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="257"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="261"/>
+      <c r="A7" s="259"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="282"/>
       <c r="D7" s="76" t="s">
         <v>90</v>
       </c>
@@ -5200,9 +5200,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="257"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="262"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="280"/>
+      <c r="C8" s="283"/>
       <c r="D8" s="98" t="s">
         <v>91</v>
       </c>
@@ -5248,9 +5248,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="257"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260" t="s">
+      <c r="A9" s="259"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="281" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="91" t="s">
@@ -5299,9 +5299,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="257"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="261"/>
+      <c r="A10" s="259"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="282"/>
       <c r="D10" s="76" t="s">
         <v>89</v>
       </c>
@@ -5348,9 +5348,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="257"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="262"/>
+      <c r="A11" s="259"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="283"/>
       <c r="D11" s="98" t="s">
         <v>107</v>
       </c>
@@ -5397,9 +5397,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" s="257"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260" t="s">
+      <c r="A12" s="259"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="281" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="91" t="s">
@@ -5449,9 +5449,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="257"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="262"/>
+      <c r="A13" s="259"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="283"/>
       <c r="D13" s="98"/>
       <c r="E13" s="99">
         <v>8</v>
@@ -5496,8 +5496,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="257"/>
-      <c r="B14" s="259"/>
+      <c r="A14" s="259"/>
+      <c r="B14" s="280"/>
       <c r="C14" s="110" t="s">
         <v>77</v>
       </c>
@@ -5546,8 +5546,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="257"/>
-      <c r="B15" s="259"/>
+      <c r="A15" s="259"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="108"/>
       <c r="D15" s="76" t="s">
         <v>98</v>
@@ -5594,8 +5594,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="257"/>
-      <c r="B16" s="259"/>
+      <c r="A16" s="259"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="109"/>
       <c r="D16" s="92" t="s">
         <v>79</v>
@@ -5642,8 +5642,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="257"/>
-      <c r="B17" s="259"/>
+      <c r="A17" s="259"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="79" t="s">
         <v>78</v>
       </c>
@@ -5694,23 +5694,23 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="256"/>
-      <c r="B18" s="258" t="s">
+      <c r="A18" s="258"/>
+      <c r="B18" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="277" t="s">
+      <c r="C18" s="260" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="279" t="s">
+      <c r="D18" s="262" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="281">
+      <c r="E18" s="264">
         <v>8</v>
       </c>
       <c r="F18" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="283">
+      <c r="G18" s="266">
         <v>10</v>
       </c>
       <c r="H18" s="135" t="s">
@@ -5730,7 +5730,7 @@
         <v>154</v>
       </c>
       <c r="M18" s="159"/>
-      <c r="N18" s="275"/>
+      <c r="N18" s="256"/>
       <c r="O18" s="160">
         <f>E18</f>
         <v>8</v>
@@ -5748,15 +5748,15 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="257"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="278"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="282"/>
+      <c r="A19" s="259"/>
+      <c r="B19" s="280"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="265"/>
       <c r="F19" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="283"/>
+      <c r="G19" s="266"/>
       <c r="H19" s="138" t="s">
         <v>93</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>154</v>
       </c>
       <c r="M19" s="164"/>
-      <c r="N19" s="276"/>
+      <c r="N19" s="257"/>
       <c r="O19" s="165"/>
       <c r="P19" s="166"/>
       <c r="Q19" s="167"/>
@@ -5784,8 +5784,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="257"/>
-      <c r="B20" s="259"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="280"/>
       <c r="C20" s="140" t="s">
         <v>139</v>
       </c>
@@ -5834,8 +5834,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="257"/>
-      <c r="B21" s="259"/>
+      <c r="A21" s="259"/>
+      <c r="B21" s="280"/>
       <c r="C21" s="145"/>
       <c r="D21" s="146" t="s">
         <v>140</v>
@@ -5882,8 +5882,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="257"/>
-      <c r="B22" s="259"/>
+      <c r="A22" s="259"/>
+      <c r="B22" s="280"/>
       <c r="C22" s="151"/>
       <c r="D22" s="141" t="s">
         <v>142</v>
@@ -5930,8 +5930,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="257"/>
-      <c r="B23" s="259"/>
+      <c r="A23" s="259"/>
+      <c r="B23" s="280"/>
       <c r="C23" s="146"/>
       <c r="D23" s="153" t="s">
         <v>137</v>
@@ -5978,8 +5978,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="257"/>
-      <c r="B24" s="259"/>
+      <c r="A24" s="259"/>
+      <c r="B24" s="280"/>
       <c r="C24" s="155" t="s">
         <v>114</v>
       </c>
@@ -7179,22 +7179,22 @@
     <row r="446" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B18:B24"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J43">
     <cfRule type="colorScale" priority="187">
@@ -7413,6 +7413,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008627D652ECF16F40ADBE374E3D3D87F6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a82faf83e130f03aec18d17d2520a96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb007535-a6a4-4ea0-86da-29f43c46b391" xmlns:ns3="b4c971ed-d55e-45d5-823f-e5f0a4d5378a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a257aab2ea2865cd171ccfb5db57b0" ns2:_="" ns3:_="">
     <xsd:import namespace="fb007535-a6a4-4ea0-86da-29f43c46b391"/>
@@ -7577,22 +7586,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE32DFB4-4620-4CB8-8357-3506FC850A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7611,19 +7619,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321A4371-70D3-4670-B9DE-51C73593625E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D99D69-C41B-42E2-B319-512FDE30DA9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Semestre_i_DFMEA_Temperance (versión 2).xlsx
+++ b/Semestre_i_DFMEA_Temperance (versión 2).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
   <si>
     <t>Process or Product Name:</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Overflow</t>
   </si>
   <si>
-    <t>rutina infinita, overflow, esperando un caracter de termino</t>
-  </si>
-  <si>
     <t>Detection (tester)</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t xml:space="preserve">Aislamiento electrico </t>
   </si>
   <si>
-    <t>Capacitancia/vibraciones mecanicas</t>
-  </si>
-  <si>
     <t>La plataforma se atoró</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t xml:space="preserve">No llego la señal para los motores del eje Z </t>
   </si>
   <si>
-    <t xml:space="preserve">La señal llego trunca </t>
-  </si>
-  <si>
     <t>La plataforma llego a un lugar diferente al que debia</t>
   </si>
   <si>
@@ -523,12 +514,6 @@
     <t>No esta energizado</t>
   </si>
   <si>
-    <t>La señal que se envio esta incompleta o no se dejo cargar el dato completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruido electrico/se envio una señal erronea </t>
-  </si>
-  <si>
     <t>Mal armado mecanico, enrredo con la circuiteria</t>
   </si>
   <si>
@@ -538,18 +523,9 @@
     <t>Hay un.cortocircuito</t>
   </si>
   <si>
-    <t>Delay, SPARC avisa si se llego la señal completa</t>
-  </si>
-  <si>
-    <t>Aislamiento electrico  verificar si si desea esa coordenada</t>
-  </si>
-  <si>
     <t>Cadena portacables</t>
   </si>
   <si>
-    <t>Verificar que los planos coicidan con lo real/ cadena portacables</t>
-  </si>
-  <si>
     <t>Enviar notificacion si sobrepasa la carga maxima</t>
   </si>
   <si>
@@ -631,15 +607,6 @@
     <t>No hay opciones de cambio de set points</t>
   </si>
   <si>
-    <t xml:space="preserve">Aumentar o disminuir el baudaje hasta que  este entre el rango </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuste de chasis </t>
-  </si>
-  <si>
-    <t>Guardar datos en otra localidad</t>
-  </si>
-  <si>
     <t>No se puede conectar con la base de datos o han sido borrados sin concentimiento</t>
   </si>
   <si>
@@ -673,13 +640,49 @@
     <t>Borrar setpoints y datos innecesarios / Development of PAT</t>
   </si>
   <si>
-    <t>Ruido electrico/ No aislameinto eléctrico</t>
-  </si>
-  <si>
     <t>Los comandos del actuador estan incompletos</t>
   </si>
   <si>
     <t>Requerimiento 6         (Automatic Z Axis)</t>
+  </si>
+  <si>
+    <t>Aumentar o disminuir el baudaje hasta que  este entre el rango permitido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reajuste de chasis/Revisión o mantenimiento de componentes mecánicos </t>
+  </si>
+  <si>
+    <t>SPARC avisa si la memoria se está agotando/Guardar datos en otra localidad</t>
+  </si>
+  <si>
+    <t>Cáracter de termino obligatorio/Guardar datos en otra localidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La señal llego trunca  o modificada </t>
+  </si>
+  <si>
+    <t>Carácter de termino obligatorio/SPARC avisa si se llego la señal completa</t>
+  </si>
+  <si>
+    <t>Aislamiento electrico/SPARC avisa si la señal estuvo incompleta</t>
+  </si>
+  <si>
+    <t>Mal armado mecanico/Enrredo con la circuiteria</t>
+  </si>
+  <si>
+    <t>Capacitancia/Vibraciones mecánicas</t>
+  </si>
+  <si>
+    <t>Rutina infinita/Overflow/Esperando un caracter de termino</t>
+  </si>
+  <si>
+    <t>La señal que se envio esta incompleta/No se dejó cargar el dato completo</t>
+  </si>
+  <si>
+    <t>Ruido eléctrico/Señal incompleta</t>
+  </si>
+  <si>
+    <t>Verificar que los planos coicidan con lo real/Cadena portacables</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1581,6 +1584,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1590,7 +1606,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2162,10 +2178,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2433,10 +2445,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2535,20 +2543,96 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2565,84 +2649,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2702,7 +2758,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23317E6-8623-41F0-8B0D-8D4182394236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2865,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E63FA1D0-9A8D-4AE7-AA03-2C872B4E63FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2914,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A218B3AF-48DA-48E5-9731-2C4A17B13FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +3021,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D06A2989-DB73-4D40-81D8-2706C13BEA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3072,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1952D4-D5C3-44C8-B55C-7329C3042AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3169,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA69449B-4546-4D4C-B035-C63AC3E43DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3220,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9807E8F4-898B-4ACB-BEC9-A3A3CE12A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3317,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81C25D7-CE9C-4064-A6FA-1A0F35148A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3368,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD792D50-326C-4B7B-BC13-74A3B2411AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3465,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE6999E-2B84-4E83-8AF6-CF17F4F1AE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3516,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC65B1C1-FF46-41B2-B49B-47BA29375766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3613,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895F1EB6-18C0-4E56-8307-A2ABB2EEE9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3664,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{130776FA-1B6D-48C1-92E2-7300C66F5515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3761,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E24126-67C1-4809-9342-BF4654D11587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3812,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814BF6D2-2D92-4757-A2E1-53B67E3D2A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3915,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A97B86A-BBC3-4E71-AE61-6B58F40E52CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3966,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7571F63-536C-4E5A-B3AE-107982A09057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4069,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E121374-3D38-4DD3-B80B-8541354BAC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4120,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEE8AC5-BD67-43DD-A54B-0E22E06FF988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4223,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3FE31C-2044-41A1-9CBF-F9799A6B59B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4218,7 +4274,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE725C70-7C8B-48CF-AD74-39829B1635E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4368,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD56E8A-D17A-4A1D-BC90-EC22B99F70A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4419,7 @@
         <xdr:cNvPr id="24" name="Left Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D5DA83-2044-475D-8918-F2D8D7DFFA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4476,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613FE002-EC1B-48D1-AF14-5A5EAED7513B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4611,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{629B6D83-BDE4-42F7-93D7-559AD3CC9BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,8 +4950,8 @@
   </sheetPr>
   <dimension ref="A1:W446"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4927,21 +4983,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
+      <c r="B1" s="263" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265"/>
       <c r="G1" s="2"/>
       <c r="H1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="272"/>
+        <v>87</v>
+      </c>
+      <c r="I1" s="266"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="268"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="2"/>
@@ -4953,19 +5009,19 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="275"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="278"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
@@ -5098,27 +5154,27 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="258"/>
-      <c r="B6" s="279" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="281" t="s">
-        <v>92</v>
+      <c r="A6" s="256"/>
+      <c r="B6" s="258" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="260" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="71">
         <v>8</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="71">
         <v>5</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="71">
         <v>8</v>
@@ -5128,10 +5184,10 @@
         <v>320</v>
       </c>
       <c r="K6" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="80" t="s">
         <v>94</v>
-      </c>
-      <c r="L6" s="80" t="s">
-        <v>95</v>
       </c>
       <c r="M6" s="81"/>
       <c r="N6" s="111"/>
@@ -5152,23 +5208,23 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="259"/>
-      <c r="B7" s="280"/>
-      <c r="C7" s="282"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="261"/>
       <c r="D7" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="73">
         <v>5</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="73">
         <v>10</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="73">
         <v>1</v>
@@ -5178,10 +5234,10 @@
         <v>50</v>
       </c>
       <c r="K7" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M7" s="84"/>
       <c r="N7" s="112"/>
@@ -5200,23 +5256,23 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="259"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="283"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="262"/>
       <c r="D8" s="98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="99">
         <v>5</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="99">
         <v>10</v>
       </c>
       <c r="H8" s="100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="99">
         <v>1</v>
@@ -5226,10 +5282,10 @@
         <v>50</v>
       </c>
       <c r="K8" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="102" t="s">
         <v>94</v>
-      </c>
-      <c r="L8" s="102" t="s">
-        <v>95</v>
       </c>
       <c r="M8" s="103"/>
       <c r="N8" s="113"/>
@@ -5248,25 +5304,25 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="259"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="281" t="s">
-        <v>106</v>
+      <c r="A9" s="257"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260" t="s">
+        <v>105</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="71">
         <v>5</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="71">
         <v>3</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="71">
         <v>7</v>
@@ -5276,10 +5332,10 @@
         <v>105</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" s="81"/>
       <c r="N9" s="111"/>
@@ -5299,23 +5355,23 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="259"/>
-      <c r="B10" s="280"/>
-      <c r="C10" s="282"/>
+      <c r="A10" s="257"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="261"/>
       <c r="D10" s="76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="73">
         <v>8</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="73">
         <v>4</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="73">
         <v>6</v>
@@ -5325,10 +5381,10 @@
         <v>192</v>
       </c>
       <c r="K10" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="83" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="84"/>
       <c r="N10" s="112"/>
@@ -5348,23 +5404,23 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="259"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="98" t="s">
-        <v>107</v>
+      <c r="A11" s="257"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="92" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="99">
         <v>7</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" s="99">
         <v>7</v>
       </c>
       <c r="H11" s="100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="99">
         <v>1</v>
@@ -5374,10 +5430,10 @@
         <v>49</v>
       </c>
       <c r="K11" s="101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="113"/>
@@ -5397,15 +5453,15 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" s="259"/>
-      <c r="B12" s="280"/>
-      <c r="C12" s="281" t="s">
+      <c r="A12" s="257"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="71">
+      <c r="D12" s="288" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="286">
         <v>5</v>
       </c>
       <c r="F12" s="72" t="s">
@@ -5415,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="71">
         <v>5</v>
@@ -5425,10 +5481,10 @@
         <v>50</v>
       </c>
       <c r="K12" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" s="81"/>
       <c r="N12" s="111"/>
@@ -5449,11 +5505,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="259"/>
-      <c r="B13" s="280"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99">
+      <c r="A13" s="257"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="287">
         <v>8</v>
       </c>
       <c r="F13" s="100" t="s">
@@ -5463,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="99">
         <v>4</v>
@@ -5473,10 +5529,10 @@
         <v>128</v>
       </c>
       <c r="K13" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="113"/>
@@ -5495,14 +5551,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="259"/>
-      <c r="B14" s="280"/>
+    <row r="14" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="257"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="110" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="94">
         <v>6</v>
@@ -5514,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="94">
         <v>6</v>
@@ -5524,10 +5580,10 @@
         <v>36</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L14" s="130" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="114"/>
@@ -5545,12 +5601,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="259"/>
-      <c r="B15" s="280"/>
+    <row r="15" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+      <c r="A15" s="257"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="108"/>
       <c r="D15" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="73">
         <v>8</v>
@@ -5562,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="73">
         <v>4</v>
@@ -5572,10 +5628,10 @@
         <v>64</v>
       </c>
       <c r="K15" s="75" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L15" s="131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="84"/>
       <c r="N15" s="115"/>
@@ -5593,9 +5649,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="259"/>
-      <c r="B16" s="280"/>
+    <row r="16" spans="1:18" ht="49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="257"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="109"/>
       <c r="D16" s="92" t="s">
         <v>79</v>
@@ -5604,13 +5660,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="G16" s="77">
         <v>4</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="77">
         <v>6</v>
@@ -5620,10 +5676,10 @@
         <v>120</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L16" s="132" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="116"/>
@@ -5641,28 +5697,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="259"/>
-      <c r="B17" s="280"/>
+    <row r="17" spans="1:18" ht="49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="257"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="79" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="71">
+        <v>99</v>
+      </c>
+      <c r="E17" s="282">
         <v>4</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="71">
+        <v>194</v>
+      </c>
+      <c r="G17" s="282">
         <v>2</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="71">
+        <v>92</v>
+      </c>
+      <c r="I17" s="282">
         <v>4</v>
       </c>
       <c r="J17" s="61">
@@ -5670,10 +5726,10 @@
         <v>32</v>
       </c>
       <c r="K17" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L17" s="133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M17" s="81"/>
       <c r="N17" s="117"/>
@@ -5694,52 +5750,52 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="258"/>
-      <c r="B18" s="279" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="260" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="262" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="264">
+      <c r="A18" s="256"/>
+      <c r="B18" s="258" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="277" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="279" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="254">
         <v>8</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="266">
+        <v>140</v>
+      </c>
+      <c r="G18" s="254">
         <v>10</v>
       </c>
       <c r="H18" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="142">
+        <v>92</v>
+      </c>
+      <c r="I18" s="283">
         <v>1</v>
       </c>
-      <c r="J18" s="227">
+      <c r="J18" s="226">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K18" s="158" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="159"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="160">
+      <c r="K18" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="158"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="159">
         <f>E18</f>
         <v>8</v>
       </c>
-      <c r="P18" s="161">
+      <c r="P18" s="160">
         <f t="shared" ref="P18:P24" si="2">G18</f>
         <v>10</v>
       </c>
-      <c r="Q18" s="162">
+      <c r="Q18" s="161">
         <v>1</v>
       </c>
       <c r="R18" s="51">
@@ -5748,84 +5804,94 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="259"/>
-      <c r="B19" s="280"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="265"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="255">
+        <v>5</v>
+      </c>
       <c r="F19" s="137" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="266"/>
+        <v>143</v>
+      </c>
+      <c r="G19" s="255">
+        <v>10</v>
+      </c>
       <c r="H19" s="138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="156">
         <v>1</v>
       </c>
-      <c r="J19" s="228">
+      <c r="J19" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="164"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="167"/>
+        <v>50</v>
+      </c>
+      <c r="K19" s="162" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="163"/>
+      <c r="N19" s="276"/>
+      <c r="O19" s="164">
+        <v>5</v>
+      </c>
+      <c r="P19" s="165">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="166">
+        <v>1</v>
+      </c>
       <c r="R19" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="259"/>
-      <c r="B20" s="280"/>
+    <row r="20" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="257"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="140" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="226">
+        <v>138</v>
+      </c>
+      <c r="E20" s="225">
         <v>7</v>
       </c>
       <c r="F20" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="144">
+        <v>195</v>
+      </c>
+      <c r="G20" s="281">
         <v>7</v>
       </c>
-      <c r="H20" s="229" t="s">
-        <v>93</v>
+      <c r="H20" s="228" t="s">
+        <v>92</v>
       </c>
       <c r="I20" s="136">
         <v>1</v>
       </c>
-      <c r="J20" s="228">
+      <c r="J20" s="227">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="K20" s="168" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="169"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="171">
+      <c r="K20" s="167" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="168"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="170">
         <v>7</v>
       </c>
-      <c r="P20" s="172">
+      <c r="P20" s="171">
         <v>7</v>
       </c>
-      <c r="Q20" s="173">
+      <c r="Q20" s="172">
         <v>1</v>
       </c>
       <c r="R20" s="49">
@@ -5834,94 +5900,94 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="259"/>
-      <c r="B21" s="280"/>
+      <c r="A21" s="257"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="145"/>
       <c r="D21" s="146" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="147">
         <v>7</v>
       </c>
       <c r="F21" s="148" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G21" s="149">
-        <v>3</v>
-      </c>
-      <c r="H21" s="230" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="216">
+        <v>7</v>
+      </c>
+      <c r="H21" s="293" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="215">
         <v>5</v>
       </c>
-      <c r="J21" s="228">
+      <c r="J21" s="227">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="K21" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="L21" s="174" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="175"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="177">
+        <v>245</v>
+      </c>
+      <c r="K21" s="173" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="176">
         <v>7</v>
       </c>
-      <c r="P21" s="178">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="179">
+      <c r="P21" s="177">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="178">
         <v>3</v>
       </c>
       <c r="R21" s="49">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="259"/>
-      <c r="B22" s="280"/>
+    <row r="22" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+      <c r="A22" s="257"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="151"/>
       <c r="D22" s="141" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E22" s="152">
         <v>8</v>
       </c>
       <c r="F22" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="152">
+        <v>192</v>
+      </c>
+      <c r="G22" s="144">
         <v>5</v>
       </c>
-      <c r="H22" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="136">
+      <c r="H22" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="291">
         <v>4</v>
       </c>
       <c r="J22" s="62">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="K22" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="159"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="160">
+      <c r="K22" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="158"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="159">
         <v>8</v>
       </c>
-      <c r="P22" s="161">
+      <c r="P22" s="160">
         <v>5</v>
       </c>
-      <c r="Q22" s="162">
+      <c r="Q22" s="161">
         <v>2</v>
       </c>
       <c r="R22" s="49">
@@ -5929,47 +5995,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="259"/>
-      <c r="B23" s="280"/>
-      <c r="C23" s="146"/>
+    <row r="23" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+      <c r="A23" s="257"/>
+      <c r="B23" s="259"/>
+      <c r="C23" s="146" t="s">
+        <v>112</v>
+      </c>
       <c r="D23" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="139">
         <v>8</v>
       </c>
       <c r="F23" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="139">
+        <v>142</v>
+      </c>
+      <c r="G23" s="289">
         <v>2</v>
       </c>
-      <c r="H23" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="139">
+      <c r="H23" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="292">
         <v>3</v>
       </c>
       <c r="J23" s="62">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K23" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="164"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="165">
+      <c r="K23" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" s="163"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="164">
         <v>8</v>
       </c>
-      <c r="P23" s="166">
+      <c r="P23" s="165">
         <v>2</v>
       </c>
-      <c r="Q23" s="167">
+      <c r="Q23" s="166">
         <v>2</v>
       </c>
       <c r="R23" s="49">
@@ -5978,50 +6046,48 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="259"/>
-      <c r="B24" s="280"/>
-      <c r="C24" s="155" t="s">
-        <v>114</v>
-      </c>
+      <c r="A24" s="257"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="155"/>
       <c r="D24" s="150" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E24" s="156">
         <v>7</v>
       </c>
       <c r="F24" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="157">
+        <v>141</v>
+      </c>
+      <c r="G24" s="290">
         <v>5</v>
       </c>
-      <c r="H24" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="139">
+      <c r="H24" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="292">
         <v>4</v>
       </c>
       <c r="J24" s="129">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="K24" s="163" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="164"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="165">
+      <c r="K24" s="162" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="163"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="164">
         <f>E24</f>
         <v>7</v>
       </c>
-      <c r="P24" s="166">
+      <c r="P24" s="165">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q24" s="167">
+      <c r="Q24" s="166">
         <v>2</v>
       </c>
       <c r="R24" s="49">
@@ -6033,686 +6099,902 @@
       <c r="A25" s="38"/>
       <c r="B25" s="44"/>
       <c r="C25" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="71"/>
+        <v>147</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="71">
+        <v>8</v>
+      </c>
       <c r="F25" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="182"/>
-      <c r="H25" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="71"/>
+        <v>148</v>
+      </c>
+      <c r="G25" s="181">
+        <v>10</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="71">
+        <v>1</v>
+      </c>
       <c r="J25" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="186" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="186" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="L25" s="185" t="s">
+        <v>146</v>
+      </c>
       <c r="M25" s="81"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="82"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="187">
+        <v>8</v>
+      </c>
+      <c r="P25" s="118">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="82">
+        <v>1</v>
+      </c>
       <c r="R25" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="73"/>
+        <v>149</v>
+      </c>
+      <c r="E26" s="73">
+        <v>7</v>
+      </c>
       <c r="F26" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="183"/>
+        <v>81</v>
+      </c>
+      <c r="G26" s="182">
+        <v>3</v>
+      </c>
       <c r="H26" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="73"/>
+        <v>92</v>
+      </c>
+      <c r="I26" s="73">
+        <v>5</v>
+      </c>
       <c r="J26" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="189" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="189" t="s">
         <v>105</v>
       </c>
+      <c r="K26" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="188" t="s">
+        <v>104</v>
+      </c>
       <c r="M26" s="84"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="85"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="128">
+        <v>3</v>
+      </c>
+      <c r="P26" s="119">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="85">
+        <v>3</v>
+      </c>
       <c r="R26" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="43"/>
       <c r="C27" s="88" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="77"/>
+        <v>183</v>
+      </c>
+      <c r="E27" s="77">
+        <v>7</v>
+      </c>
       <c r="F27" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="77"/>
+        <v>153</v>
+      </c>
+      <c r="G27" s="183">
+        <v>7</v>
+      </c>
+      <c r="H27" s="184" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="77">
+        <v>2</v>
+      </c>
       <c r="J27" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="191" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="191" t="s">
-        <v>163</v>
+        <v>98</v>
+      </c>
+      <c r="K27" s="190" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="190" t="s">
+        <v>155</v>
       </c>
       <c r="M27" s="89"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="195"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="192">
+        <v>7</v>
+      </c>
+      <c r="P27" s="193">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="194">
+        <v>1</v>
+      </c>
       <c r="R27" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="35"/>
       <c r="C28" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="237" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="231"/>
+        <v>173</v>
+      </c>
+      <c r="D28" s="235" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="229">
+        <v>7</v>
+      </c>
       <c r="F28" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="238"/>
+        <v>176</v>
+      </c>
+      <c r="G28" s="236">
+        <v>10</v>
+      </c>
       <c r="H28" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="231"/>
+        <v>92</v>
+      </c>
+      <c r="I28" s="229">
+        <v>1</v>
+      </c>
       <c r="J28" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="245"/>
-      <c r="N28" s="246"/>
-      <c r="O28" s="247"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
+        <v>70</v>
+      </c>
+      <c r="K28" s="167" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="243"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="245">
+        <v>7</v>
+      </c>
+      <c r="P28" s="171">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="172">
+        <v>1</v>
+      </c>
       <c r="R28" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="214" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="139"/>
+      <c r="D29" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="139">
+        <v>5</v>
+      </c>
       <c r="F29" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="239"/>
+        <v>153</v>
+      </c>
+      <c r="G29" s="237">
+        <v>7</v>
+      </c>
       <c r="H29" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="139"/>
+        <v>92</v>
+      </c>
+      <c r="I29" s="139">
+        <v>2</v>
+      </c>
       <c r="J29" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="164"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="248"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="167"/>
+        <v>70</v>
+      </c>
+      <c r="K29" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="163"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="246">
+        <v>5</v>
+      </c>
+      <c r="P29" s="165">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="166">
+        <v>1</v>
+      </c>
       <c r="R29" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="240" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="241" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="242" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="243"/>
-      <c r="H30" s="244" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="147"/>
+      <c r="C30" s="238" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="239" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="147">
+        <v>5</v>
+      </c>
+      <c r="F30" s="240" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="241">
+        <v>7</v>
+      </c>
+      <c r="H30" s="242" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="147">
+        <v>2</v>
+      </c>
       <c r="J30" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="249" t="s">
-        <v>190</v>
-      </c>
-      <c r="L30" s="249" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="250"/>
-      <c r="N30" s="251"/>
-      <c r="O30" s="252"/>
-      <c r="P30" s="253"/>
-      <c r="Q30" s="254"/>
+        <v>70</v>
+      </c>
+      <c r="K30" s="247" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="247" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="248"/>
+      <c r="N30" s="249"/>
+      <c r="O30" s="250">
+        <v>5</v>
+      </c>
+      <c r="P30" s="251">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="252">
+        <v>1</v>
+      </c>
       <c r="R30" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="225"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="233" t="s">
-        <v>177</v>
+      <c r="C31" s="231" t="s">
+        <v>169</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="71"/>
+        <v>123</v>
+      </c>
+      <c r="E31" s="71">
+        <v>7</v>
+      </c>
       <c r="F31" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="71"/>
+        <v>156</v>
+      </c>
+      <c r="G31" s="71">
+        <v>3</v>
+      </c>
       <c r="H31" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="71"/>
+        <v>92</v>
+      </c>
+      <c r="I31" s="71">
+        <v>4</v>
+      </c>
       <c r="J31" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="186" t="s">
-        <v>193</v>
+        <v>84</v>
+      </c>
+      <c r="K31" s="185" t="s">
+        <v>182</v>
       </c>
       <c r="L31" s="133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M31" s="81"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="82"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="80">
+        <v>7</v>
+      </c>
+      <c r="P31" s="209">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="82">
+        <v>3</v>
+      </c>
       <c r="R31" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="234" t="s">
-        <v>178</v>
+        <v>134</v>
+      </c>
+      <c r="C32" s="232" t="s">
+        <v>170</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="73"/>
+        <v>121</v>
+      </c>
+      <c r="E32" s="73">
+        <v>7</v>
+      </c>
       <c r="F32" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="73"/>
+        <v>172</v>
+      </c>
+      <c r="G32" s="73">
+        <v>3</v>
+      </c>
       <c r="H32" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="73"/>
+        <v>92</v>
+      </c>
+      <c r="I32" s="73">
+        <v>3</v>
+      </c>
       <c r="J32" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="189" t="s">
-        <v>192</v>
+        <v>63</v>
+      </c>
+      <c r="K32" s="188" t="s">
+        <v>181</v>
       </c>
       <c r="L32" s="131" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M32" s="84"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="85"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="83">
+        <v>7</v>
+      </c>
+      <c r="P32" s="122">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="85">
+        <v>2</v>
+      </c>
       <c r="R32" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
-      <c r="B33" s="196"/>
-      <c r="C33" s="235" t="s">
-        <v>179</v>
+      <c r="B33" s="195"/>
+      <c r="C33" s="233" t="s">
+        <v>171</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="99"/>
+        <v>122</v>
+      </c>
+      <c r="E33" s="99">
+        <v>6</v>
+      </c>
       <c r="F33" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="99"/>
-      <c r="H33" s="236" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="99"/>
+        <v>172</v>
+      </c>
+      <c r="G33" s="99">
+        <v>3</v>
+      </c>
+      <c r="H33" s="234" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="99">
+        <v>3</v>
+      </c>
       <c r="J33" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="255" t="s">
-        <v>192</v>
+        <v>54</v>
+      </c>
+      <c r="K33" s="253" t="s">
+        <v>181</v>
       </c>
       <c r="L33" s="134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M33" s="103"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="104"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="102">
+        <v>6</v>
+      </c>
+      <c r="P33" s="211">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="104">
+        <v>2</v>
+      </c>
       <c r="R33" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="197" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="197" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="142"/>
+        <v>129</v>
+      </c>
+      <c r="C34" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="142">
+        <v>5</v>
+      </c>
       <c r="F34" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="152"/>
+        <v>159</v>
+      </c>
+      <c r="G34" s="152">
+        <v>3</v>
+      </c>
       <c r="H34" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="152"/>
+        <v>92</v>
+      </c>
+      <c r="I34" s="152">
+        <v>3</v>
+      </c>
       <c r="J34" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="213" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="212" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="218" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="159"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="219"/>
-      <c r="Q34" s="162"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="212">
+        <v>5</v>
+      </c>
+      <c r="P34" s="218">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="161">
+        <v>2</v>
+      </c>
       <c r="R34" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="139"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="136">
+        <v>5</v>
+      </c>
+      <c r="F35" s="199" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="139">
+        <v>2</v>
+      </c>
       <c r="H35" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="139"/>
+        <v>92</v>
+      </c>
+      <c r="I35" s="139">
+        <v>1</v>
+      </c>
       <c r="J35" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K35" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="L35" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="M35" s="164"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="202"/>
-      <c r="Q35" s="167"/>
+        <v>160</v>
+      </c>
+      <c r="L35" s="200" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="163"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="154">
+        <v>5</v>
+      </c>
+      <c r="P35" s="201">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="166">
+        <v>1</v>
+      </c>
       <c r="R35" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="35"/>
-      <c r="C36" s="203" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="204" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="205"/>
+      <c r="C36" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="203" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="204">
+        <v>7</v>
+      </c>
       <c r="F36" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="73"/>
+        <v>163</v>
+      </c>
+      <c r="G36" s="73">
+        <v>3</v>
+      </c>
       <c r="H36" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="73"/>
+        <v>92</v>
+      </c>
+      <c r="I36" s="73">
+        <v>7</v>
+      </c>
       <c r="J36" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K36" s="75" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L36" s="131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M36" s="84"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="85"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="83">
+        <v>7</v>
+      </c>
+      <c r="P36" s="122">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="85">
+        <v>6</v>
+      </c>
       <c r="R36" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="206"/>
+        <v>120</v>
+      </c>
+      <c r="C37" s="205"/>
       <c r="D37" s="96"/>
-      <c r="E37" s="205"/>
+      <c r="E37" s="204">
+        <v>7</v>
+      </c>
       <c r="F37" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="73"/>
+        <v>142</v>
+      </c>
+      <c r="G37" s="73">
+        <v>3</v>
+      </c>
       <c r="H37" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="73"/>
+        <v>92</v>
+      </c>
+      <c r="I37" s="73">
+        <v>5</v>
+      </c>
       <c r="J37" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K37" s="75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L37" s="131" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M37" s="84"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="85"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="83">
+        <v>7</v>
+      </c>
+      <c r="P37" s="122">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="85">
+        <v>4</v>
+      </c>
       <c r="R37" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="73"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="207" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="73">
+        <v>6</v>
+      </c>
       <c r="F38" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="73"/>
+        <v>164</v>
+      </c>
+      <c r="G38" s="73">
+        <v>2</v>
+      </c>
       <c r="H38" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I38" s="73"/>
+        <v>92</v>
+      </c>
+      <c r="I38" s="73">
+        <v>3</v>
+      </c>
       <c r="J38" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K38" s="75" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L38" s="131" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M38" s="84"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="85"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="83">
+        <v>6</v>
+      </c>
+      <c r="P38" s="122">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="85">
+        <v>2</v>
+      </c>
       <c r="R38" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
-      <c r="B39" s="232"/>
-      <c r="C39" s="209" t="s">
-        <v>170</v>
+      <c r="B39" s="230"/>
+      <c r="C39" s="208" t="s">
+        <v>162</v>
       </c>
       <c r="D39" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="99"/>
+        <v>118</v>
+      </c>
+      <c r="E39" s="99">
+        <v>8</v>
+      </c>
       <c r="F39" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="99"/>
+        <v>151</v>
+      </c>
+      <c r="G39" s="99">
+        <v>3</v>
+      </c>
       <c r="H39" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="99"/>
+        <v>92</v>
+      </c>
+      <c r="I39" s="99">
+        <v>5</v>
+      </c>
       <c r="J39" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K39" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M39" s="103"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="212"/>
-      <c r="Q39" s="104"/>
+      <c r="N39" s="210"/>
+      <c r="O39" s="102">
+        <v>8</v>
+      </c>
+      <c r="P39" s="211">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="104">
+        <v>4</v>
+      </c>
       <c r="R39" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="154" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="139"/>
+        <v>166</v>
+      </c>
+      <c r="E40" s="139">
+        <v>8</v>
+      </c>
       <c r="F40" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="139"/>
+        <v>148</v>
+      </c>
+      <c r="G40" s="139">
+        <v>10</v>
+      </c>
       <c r="H40" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="139"/>
+        <v>92</v>
+      </c>
+      <c r="I40" s="139">
+        <v>1</v>
+      </c>
       <c r="J40" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K40" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="201" t="s">
-        <v>95</v>
-      </c>
-      <c r="M40" s="164"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="202"/>
-      <c r="Q40" s="167"/>
+        <v>103</v>
+      </c>
+      <c r="L40" s="200" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" s="163"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="154">
+        <v>8</v>
+      </c>
+      <c r="P40" s="201">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="166">
+        <v>1</v>
+      </c>
       <c r="R40" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="43"/>
       <c r="C41" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="214" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="139"/>
+        <v>114</v>
+      </c>
+      <c r="D41" s="213" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="139">
+        <v>8</v>
+      </c>
       <c r="F41" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" s="139"/>
+        <v>174</v>
+      </c>
+      <c r="G41" s="139">
+        <v>9</v>
+      </c>
       <c r="H41" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="139"/>
+        <v>92</v>
+      </c>
+      <c r="I41" s="139">
+        <v>2</v>
+      </c>
       <c r="J41" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K41" s="153" t="s">
-        <v>186</v>
-      </c>
-      <c r="L41" s="201" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" s="164"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="202"/>
-      <c r="Q41" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="L41" s="200" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" s="163"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="154">
+        <v>8</v>
+      </c>
+      <c r="P41" s="201">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="166">
+        <v>1</v>
+      </c>
       <c r="R41" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="45"/>
       <c r="C42" s="150" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="215" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="216"/>
-      <c r="F42" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="216"/>
+        <v>115</v>
+      </c>
+      <c r="D42" s="214" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="215">
+        <v>8</v>
+      </c>
+      <c r="F42" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="215">
+        <v>9</v>
+      </c>
       <c r="H42" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="216"/>
+        <v>92</v>
+      </c>
+      <c r="I42" s="215">
+        <v>2</v>
+      </c>
       <c r="J42" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="220" t="s">
-        <v>186</v>
-      </c>
-      <c r="L42" s="221" t="s">
-        <v>95</v>
-      </c>
-      <c r="M42" s="222"/>
-      <c r="N42" s="223"/>
-      <c r="O42" s="150"/>
-      <c r="P42" s="224"/>
-      <c r="Q42" s="179"/>
+        <v>144</v>
+      </c>
+      <c r="K42" s="219" t="s">
+        <v>175</v>
+      </c>
+      <c r="L42" s="220" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" s="221"/>
+      <c r="N42" s="222"/>
+      <c r="O42" s="150">
+        <v>8</v>
+      </c>
+      <c r="P42" s="223">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="178">
+        <v>1</v>
+      </c>
       <c r="R42" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="110" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7178,23 +7460,21 @@
     <row r="445" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="446" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B18:B24"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:B17"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J43">
     <cfRule type="colorScale" priority="187">
@@ -7260,10 +7540,10 @@
         <v>45</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.2">
